--- a/data/germany/nace2_short_reduction_of_workhours.xlsx
+++ b/data/germany/nace2_short_reduction_of_workhours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac135963\Nextcloud\Projekte\CORONA\data\germany\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac135963\Nextcloud\Projekte\CORONA_PROJEKT\covid19_sim\data\germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC8626B-1FBF-4765-A1B9-744AA08D2CC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F435314-77DA-4F4C-A61D-E5C5580FF04C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{317C3963-574C-40A1-A651-60B1033B3921}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t/>
   </si>
@@ -176,9 +176,6 @@
     <t xml:space="preserve">        Erbringung von Finanz- und Versicherungsdienstleistungen          </t>
   </si>
   <si>
-    <t xml:space="preserve">        </t>
-  </si>
-  <si>
     <t xml:space="preserve">        Öffentliche Verwaltung, Verteidigung; Sozialversicherung                              </t>
   </si>
   <si>
@@ -201,6 +198,72 @@
   </si>
   <si>
     <t>nace2_short_desc</t>
+  </si>
+  <si>
+    <t>Agriculture, Forestry and Fishing</t>
+  </si>
+  <si>
+    <t>Mining and Quarrying</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Electricity, Gas, Steam and Air Conditioning Supply</t>
+  </si>
+  <si>
+    <t>Water Supply; Sewerage, Waste Management and Remediation Activities</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Wholesale and Retail Trade; Repair of Motor Vehicles and Motorcycles</t>
+  </si>
+  <si>
+    <t>Transportation and Storage</t>
+  </si>
+  <si>
+    <t>Accommodation and Food Service Activities</t>
+  </si>
+  <si>
+    <t>Information and Communication</t>
+  </si>
+  <si>
+    <t>Financial and Insurance Activities</t>
+  </si>
+  <si>
+    <t>Real Estate Activities</t>
+  </si>
+  <si>
+    <t>Professional, Scientific and Technical Activities</t>
+  </si>
+  <si>
+    <t>Administrative and Support Service Activities</t>
+  </si>
+  <si>
+    <t>Public Administration and Defence; Compulsory Social Security</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Human Health and Social Work Activities</t>
+  </si>
+  <si>
+    <t>Arts, Entertainment and Recreation</t>
+  </si>
+  <si>
+    <t>Other Service Activities</t>
+  </si>
+  <si>
+    <t>Activities of Households as Employers; Undifferentiated Goods and Services Producing Activities of Households for Own Use</t>
+  </si>
+  <si>
+    <t>Activities of Extraterritorial Organisations and Bodies</t>
+  </si>
+  <si>
+    <t>NACE-section</t>
   </si>
 </sst>
 </file>
@@ -664,14 +727,14 @@
     <xf numFmtId="164" fontId="3" fillId="24" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="24" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="24" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="24" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1032,35 +1095,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79852123-DF71-4530-9B9A-94FD381C17FB}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="74.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="78.21875" customWidth="1"/>
+    <col min="1" max="1" width="74.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="78.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
-        <v>43</v>
+      <c r="F1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1078,6 +1144,9 @@
       </c>
       <c r="E2" s="3">
         <v>-4.7</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1096,7 +1165,9 @@
       <c r="E3" s="6">
         <v>-2.8</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
       <c r="I3" s="6"/>
@@ -1117,7 +1188,9 @@
       <c r="E4" s="6">
         <v>-9.9</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
     </row>
@@ -1137,11 +1210,13 @@
       <c r="E5" s="6">
         <v>-0.6</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="16.8" customHeight="1">
+    <row r="6" spans="1:9" ht="16.899999999999999" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1157,11 +1232,13 @@
       <c r="E6" s="6">
         <v>-1.5</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="17.399999999999999" customHeight="1">
+    <row r="7" spans="1:9" ht="17.45" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1177,7 +1254,9 @@
       <c r="E7" s="6">
         <v>-1.5</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
     </row>
@@ -1197,11 +1276,13 @@
       <c r="E8" s="6">
         <v>-7.9</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="19.8" customHeight="1">
+    <row r="9" spans="1:9" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1217,11 +1298,13 @@
       <c r="E9" s="6">
         <v>-5.6</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="16.2" customHeight="1">
+    <row r="10" spans="1:9" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1237,7 +1320,9 @@
       <c r="E10" s="6">
         <v>-32.299999999999997</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
     </row>
@@ -1257,7 +1342,9 @@
       <c r="E11" s="6">
         <v>-4</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
     </row>
@@ -1277,11 +1364,13 @@
       <c r="E12" s="6">
         <v>-0.8</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="26.4" customHeight="1">
+    <row r="13" spans="1:9" ht="26.45" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1297,13 +1386,15 @@
       <c r="E13" s="6">
         <v>-2.5</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="25.2" customHeight="1">
+    <row r="14" spans="1:9" ht="25.15" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1317,13 +1408,15 @@
       <c r="E14" s="6">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="23.4" customHeight="1">
+    <row r="15" spans="1:9" ht="23.45" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1337,13 +1430,15 @@
       <c r="E15" s="6">
         <v>-9.6999999999999993</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1357,11 +1452,13 @@
       <c r="E16" s="6">
         <v>0</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="23.4" customHeight="1">
+    <row r="17" spans="1:9" ht="23.45" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1377,11 +1474,13 @@
       <c r="E17" s="6">
         <v>-1.5</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="20.399999999999999" customHeight="1">
+    <row r="18" spans="1:9" ht="20.45" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1397,11 +1496,13 @@
       <c r="E18" s="6">
         <v>-2</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="17.399999999999999" customHeight="1">
+    <row r="19" spans="1:9" ht="17.45" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1414,14 +1515,16 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>-15.5</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:9" ht="25.2" customHeight="1">
+    <row r="20" spans="1:9" ht="25.15" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1434,14 +1537,16 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>-6.3</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" ht="22.2" customHeight="1">
+      <c r="F20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" ht="22.15" customHeight="1">
       <c r="B21" s="3">
         <v>20</v>
       </c>
@@ -1454,9 +1559,11 @@
       <c r="E21" s="3">
         <v>-4.7</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:9" ht="21" customHeight="1">
       <c r="B22" s="3">
@@ -1471,12 +1578,12 @@
       <c r="E22" s="3">
         <v>-4.7</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.2" customHeight="1"/>
-    <row r="24" spans="1:9" ht="26.4" customHeight="1"/>
+      <c r="F22" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.149999999999999" customHeight="1"/>
+    <row r="24" spans="1:9" ht="26.45" customHeight="1"/>
     <row r="25" spans="1:9" ht="21.6" customHeight="1"/>
     <row r="29" spans="1:9">
       <c r="F29" s="5"/>
